--- a/data/pca/factorExposure/factorExposure_2009-04-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-04-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01723714715868146</v>
+        <v>0.01666592021408748</v>
       </c>
       <c r="C2">
-        <v>-0.002012276064222162</v>
+        <v>-0.001260389439760367</v>
       </c>
       <c r="D2">
-        <v>0.007667730292466289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008848673079481034</v>
+      </c>
+      <c r="E2">
+        <v>-0.0003124957227955594</v>
+      </c>
+      <c r="F2">
+        <v>-0.01998019258365352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08716719395874327</v>
+        <v>0.09038543035880071</v>
       </c>
       <c r="C4">
-        <v>-0.02064252976292325</v>
+        <v>-0.01580632426625984</v>
       </c>
       <c r="D4">
-        <v>0.08022553996735104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08419356482887706</v>
+      </c>
+      <c r="E4">
+        <v>-0.03185290832592276</v>
+      </c>
+      <c r="F4">
+        <v>0.03625814462101285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>4.097730533210264e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>6.872803427951405e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-0.0002639278902896715</v>
+      </c>
+      <c r="E5">
+        <v>-3.215973512366459e-05</v>
+      </c>
+      <c r="F5">
+        <v>0.0001704644500698651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1568790577421791</v>
+        <v>0.1648086092758546</v>
       </c>
       <c r="C6">
-        <v>-0.03464479544631154</v>
+        <v>-0.0330880037218895</v>
       </c>
       <c r="D6">
-        <v>-0.02921237221811164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02011915459512221</v>
+      </c>
+      <c r="E6">
+        <v>-0.01565065774785835</v>
+      </c>
+      <c r="F6">
+        <v>0.05768015192333684</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05736530521525213</v>
+        <v>0.06092185474142189</v>
       </c>
       <c r="C7">
-        <v>-0.002193871666078907</v>
+        <v>0.001180746551547396</v>
       </c>
       <c r="D7">
-        <v>0.04726542407208061</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05274411921400233</v>
+      </c>
+      <c r="E7">
+        <v>-0.01939298034139266</v>
+      </c>
+      <c r="F7">
+        <v>0.04351931770797961</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05850491810630213</v>
+        <v>0.05490946424950439</v>
       </c>
       <c r="C8">
-        <v>0.009735644811653387</v>
+        <v>0.01195304482458816</v>
       </c>
       <c r="D8">
-        <v>0.02527047725546353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02997817043464746</v>
+      </c>
+      <c r="E8">
+        <v>-0.01347289377991284</v>
+      </c>
+      <c r="F8">
+        <v>-0.03621190412809197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06824612602479632</v>
+        <v>0.07056161108435141</v>
       </c>
       <c r="C9">
-        <v>-0.01646933533486091</v>
+        <v>-0.01131095172374218</v>
       </c>
       <c r="D9">
-        <v>0.08386906065178257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08813201622765723</v>
+      </c>
+      <c r="E9">
+        <v>-0.03034904085622676</v>
+      </c>
+      <c r="F9">
+        <v>0.05494700649351008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08870643406609356</v>
+        <v>0.08835162349043578</v>
       </c>
       <c r="C10">
-        <v>-0.01992937319066546</v>
+        <v>-0.02386924361973958</v>
       </c>
       <c r="D10">
-        <v>-0.1685266347950628</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1585906002081011</v>
+      </c>
+      <c r="E10">
+        <v>0.037418146707653</v>
+      </c>
+      <c r="F10">
+        <v>-0.07558733536776004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08863686927384314</v>
+        <v>0.08574529032350094</v>
       </c>
       <c r="C11">
-        <v>-0.01786311957299853</v>
+        <v>-0.01225094119167448</v>
       </c>
       <c r="D11">
-        <v>0.1150560735970586</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1203460925618218</v>
+      </c>
+      <c r="E11">
+        <v>-0.05577668820169495</v>
+      </c>
+      <c r="F11">
+        <v>0.00300710326427151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09561631150903242</v>
+        <v>0.09010705194156354</v>
       </c>
       <c r="C12">
-        <v>-0.01658830493485312</v>
+        <v>-0.0101073372417222</v>
       </c>
       <c r="D12">
-        <v>0.1223850730767467</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1362906285497772</v>
+      </c>
+      <c r="E12">
+        <v>-0.05931977779996998</v>
+      </c>
+      <c r="F12">
+        <v>0.008992536332932351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.0444788532558504</v>
+        <v>0.04415761532330299</v>
       </c>
       <c r="C13">
-        <v>-0.007214974858970134</v>
+        <v>-0.003593322418126068</v>
       </c>
       <c r="D13">
-        <v>0.04927672824810911</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05554600505243198</v>
+      </c>
+      <c r="E13">
+        <v>-0.00212872949685144</v>
+      </c>
+      <c r="F13">
+        <v>0.003814343105208793</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01799237770328418</v>
+        <v>0.02155164133230407</v>
       </c>
       <c r="C14">
-        <v>-0.01481186278412853</v>
+        <v>-0.01359978930725036</v>
       </c>
       <c r="D14">
-        <v>0.03224843036186562</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03338133828265948</v>
+      </c>
+      <c r="E14">
+        <v>-0.02228360042662673</v>
+      </c>
+      <c r="F14">
+        <v>0.01013127204029839</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03472460040193752</v>
+        <v>0.03477684172682623</v>
       </c>
       <c r="C15">
-        <v>-0.008274345943200543</v>
+        <v>-0.006393833269870235</v>
       </c>
       <c r="D15">
-        <v>0.04860262841218366</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04835776928724175</v>
+      </c>
+      <c r="E15">
+        <v>-0.01163471779383779</v>
+      </c>
+      <c r="F15">
+        <v>0.02628466081035713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07134745872324437</v>
+        <v>0.06976549628308527</v>
       </c>
       <c r="C16">
-        <v>-0.007313567955005587</v>
+        <v>-0.001642067621009681</v>
       </c>
       <c r="D16">
-        <v>0.1180036531304538</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1305046472336897</v>
+      </c>
+      <c r="E16">
+        <v>-0.06995018345603567</v>
+      </c>
+      <c r="F16">
+        <v>0.004571378988059442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.001786424900665181</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0008202633875982826</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001840836530965903</v>
+      </c>
+      <c r="E17">
+        <v>-0.005096021012852495</v>
+      </c>
+      <c r="F17">
+        <v>-0.003844722888816972</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02681158848219267</v>
+        <v>0.04496303715792965</v>
       </c>
       <c r="C18">
-        <v>0.000977885279419357</v>
+        <v>0.0007685916084025264</v>
       </c>
       <c r="D18">
-        <v>0.02307145017818626</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01837701245029223</v>
+      </c>
+      <c r="E18">
+        <v>0.004551604208711925</v>
+      </c>
+      <c r="F18">
+        <v>-0.01351122999674596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06291475588733784</v>
+        <v>0.06205785618171131</v>
       </c>
       <c r="C20">
-        <v>-0.006033855805693118</v>
+        <v>-0.002135837536531298</v>
       </c>
       <c r="D20">
-        <v>0.07479861421237749</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07923016813587613</v>
+      </c>
+      <c r="E20">
+        <v>-0.06467551336349157</v>
+      </c>
+      <c r="F20">
+        <v>0.02680838896336375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04024925238879768</v>
+        <v>0.04231278366839035</v>
       </c>
       <c r="C21">
-        <v>-0.01035390623217672</v>
+        <v>-0.007642550831442007</v>
       </c>
       <c r="D21">
-        <v>0.03626323330977156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03736640918120505</v>
+      </c>
+      <c r="E21">
+        <v>-0.0004915910791528754</v>
+      </c>
+      <c r="F21">
+        <v>-0.02822547741355961</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04211060620378998</v>
+        <v>0.04363692062159204</v>
       </c>
       <c r="C22">
-        <v>-0.002083166795108415</v>
+        <v>-0.001544964529308656</v>
       </c>
       <c r="D22">
-        <v>0.001502384600501192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.008249675929679344</v>
+      </c>
+      <c r="E22">
+        <v>-0.03050807015197537</v>
+      </c>
+      <c r="F22">
+        <v>-0.09153343562621927</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04207270461286098</v>
+        <v>0.04360518086889353</v>
       </c>
       <c r="C23">
-        <v>-0.002070135984555864</v>
+        <v>-0.001532655984182521</v>
       </c>
       <c r="D23">
-        <v>0.001520397272956307</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.008263268951617584</v>
+      </c>
+      <c r="E23">
+        <v>-0.03053181966595653</v>
+      </c>
+      <c r="F23">
+        <v>-0.0916227497898581</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07916862371864924</v>
+        <v>0.07601366212702508</v>
       </c>
       <c r="C24">
-        <v>-0.008271605413474862</v>
+        <v>-0.002618260915379067</v>
       </c>
       <c r="D24">
-        <v>0.1194244354247075</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1242361701507432</v>
+      </c>
+      <c r="E24">
+        <v>-0.0546782575705496</v>
+      </c>
+      <c r="F24">
+        <v>0.01718409399905207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08384484264914964</v>
+        <v>0.08078715896807322</v>
       </c>
       <c r="C25">
-        <v>-0.01067017332401889</v>
+        <v>-0.005562585571730646</v>
       </c>
       <c r="D25">
-        <v>0.1069787639095015</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1121704620724193</v>
+      </c>
+      <c r="E25">
+        <v>-0.04020405684266389</v>
+      </c>
+      <c r="F25">
+        <v>0.01125870959514719</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05697210181264056</v>
+        <v>0.06097771527649132</v>
       </c>
       <c r="C26">
-        <v>-0.01877083202702696</v>
+        <v>-0.01550948312241265</v>
       </c>
       <c r="D26">
-        <v>0.04047560357434079</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04901207345762503</v>
+      </c>
+      <c r="E26">
+        <v>-0.02969400369008182</v>
+      </c>
+      <c r="F26">
+        <v>-0.02149631136776732</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1412661656352545</v>
+        <v>0.1484128616655249</v>
       </c>
       <c r="C28">
-        <v>-0.02122742821590852</v>
+        <v>-0.02809930017233643</v>
       </c>
       <c r="D28">
-        <v>-0.2600782309378175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2550056612247016</v>
+      </c>
+      <c r="E28">
+        <v>0.06181684178362483</v>
+      </c>
+      <c r="F28">
+        <v>0.004522154619066862</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02514177142892694</v>
+        <v>0.02759040958773752</v>
       </c>
       <c r="C29">
-        <v>-0.009751854673732817</v>
+        <v>-0.009016025979721107</v>
       </c>
       <c r="D29">
-        <v>0.03091037208662866</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03089282981794773</v>
+      </c>
+      <c r="E29">
+        <v>-0.01667739201927655</v>
+      </c>
+      <c r="F29">
+        <v>-0.02759667802820803</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.0559332782188785</v>
+        <v>0.05344718606722335</v>
       </c>
       <c r="C30">
-        <v>-0.007781739992483573</v>
+        <v>-0.002738063894105444</v>
       </c>
       <c r="D30">
-        <v>0.07927966135254078</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08787987137373381</v>
+      </c>
+      <c r="E30">
+        <v>-0.02214026573863046</v>
+      </c>
+      <c r="F30">
+        <v>0.09833552155861386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05111246342272806</v>
+        <v>0.05152225565254319</v>
       </c>
       <c r="C31">
-        <v>-0.01859812718407602</v>
+        <v>-0.01691290729341029</v>
       </c>
       <c r="D31">
-        <v>0.02384575578784172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0266572856034581</v>
+      </c>
+      <c r="E31">
+        <v>-0.02924239653400838</v>
+      </c>
+      <c r="F31">
+        <v>-0.01232010864028198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04575110228631668</v>
+        <v>0.05048386708162951</v>
       </c>
       <c r="C32">
-        <v>-0.002617983648575563</v>
+        <v>0.0009501306273478511</v>
       </c>
       <c r="D32">
-        <v>0.03218548239768539</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03641211989955009</v>
+      </c>
+      <c r="E32">
+        <v>-0.03138130073535925</v>
+      </c>
+      <c r="F32">
+        <v>-0.000602138910186934</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08940456323736551</v>
+        <v>0.08976876837664893</v>
       </c>
       <c r="C33">
-        <v>-0.01450048860987741</v>
+        <v>-0.008388886216130202</v>
       </c>
       <c r="D33">
-        <v>0.09350515636951667</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1064868042038488</v>
+      </c>
+      <c r="E33">
+        <v>-0.05836699493925005</v>
+      </c>
+      <c r="F33">
+        <v>0.02458166280446915</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06686867175837603</v>
+        <v>0.06560263130961945</v>
       </c>
       <c r="C34">
-        <v>-0.01600548522261833</v>
+        <v>-0.01092485710062743</v>
       </c>
       <c r="D34">
-        <v>0.1006914507385354</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1123844466859436</v>
+      </c>
+      <c r="E34">
+        <v>-0.04341981730966098</v>
+      </c>
+      <c r="F34">
+        <v>0.02668034673115451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02610462564747613</v>
+        <v>0.02754455946186733</v>
       </c>
       <c r="C35">
-        <v>-0.004549355354701599</v>
+        <v>-0.003970983963486983</v>
       </c>
       <c r="D35">
-        <v>0.008760132449795151</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01180868807726013</v>
+      </c>
+      <c r="E35">
+        <v>-0.01783689935677369</v>
+      </c>
+      <c r="F35">
+        <v>-0.008879879886785477</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02342454619432151</v>
+        <v>0.02798904394859055</v>
       </c>
       <c r="C36">
-        <v>-0.008609026367486835</v>
+        <v>-0.007373956923621297</v>
       </c>
       <c r="D36">
-        <v>0.03947216378847985</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04105450537303649</v>
+      </c>
+      <c r="E36">
+        <v>-0.02044427252474968</v>
+      </c>
+      <c r="F36">
+        <v>0.01327696500794931</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.002531471286153371</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0007369370185359558</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.003172283755588782</v>
+      </c>
+      <c r="E37">
+        <v>-0.000293356353939091</v>
+      </c>
+      <c r="F37">
+        <v>-0.001555899433217784</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1064045634919041</v>
+        <v>0.09649580710624436</v>
       </c>
       <c r="C39">
-        <v>-0.02348667716302009</v>
+        <v>-0.01665796175379229</v>
       </c>
       <c r="D39">
-        <v>0.1528661518688025</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.153734913491235</v>
+      </c>
+      <c r="E39">
+        <v>-0.07015739821838123</v>
+      </c>
+      <c r="F39">
+        <v>-0.007562245583362448</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.04164078294188697</v>
+        <v>0.04697427022219163</v>
       </c>
       <c r="C40">
-        <v>-0.01099477178849177</v>
+        <v>-0.009679725276231965</v>
       </c>
       <c r="D40">
-        <v>0.02659543727178928</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03333150865167141</v>
+      </c>
+      <c r="E40">
+        <v>-0.0006933001690441358</v>
+      </c>
+      <c r="F40">
+        <v>-0.03434375723417259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02495393839219036</v>
+        <v>0.02760327265712898</v>
       </c>
       <c r="C41">
-        <v>-0.008074261075016281</v>
+        <v>-0.007352679746308309</v>
       </c>
       <c r="D41">
-        <v>0.009041861263306094</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01076031208484594</v>
+      </c>
+      <c r="E41">
+        <v>-0.01221473879066786</v>
+      </c>
+      <c r="F41">
+        <v>-0.01443892999923868</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04091572098030975</v>
+        <v>0.03954123353841209</v>
       </c>
       <c r="C43">
-        <v>-0.008919113461572871</v>
+        <v>-0.008096705167094296</v>
       </c>
       <c r="D43">
-        <v>0.01994002327580696</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02160823531510735</v>
+      </c>
+      <c r="E43">
+        <v>-0.02627918847176834</v>
+      </c>
+      <c r="F43">
+        <v>-0.02744642372311157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06144276306475537</v>
+        <v>0.07269893053742028</v>
       </c>
       <c r="C44">
-        <v>-0.02279717510986286</v>
+        <v>-0.01899792856584147</v>
       </c>
       <c r="D44">
-        <v>0.0909780362856374</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09052270717819082</v>
+      </c>
+      <c r="E44">
+        <v>-0.07870971745349517</v>
+      </c>
+      <c r="F44">
+        <v>0.1844556576513641</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>2.581049814561145e-05</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>3.316237244627973e-06</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-6.588673089160384e-05</v>
+      </c>
+      <c r="E45">
+        <v>0.0001194983155632978</v>
+      </c>
+      <c r="F45">
+        <v>1.73903303322993e-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02103844783465375</v>
+        <v>0.02460720673828834</v>
       </c>
       <c r="C46">
-        <v>-0.004842170197696049</v>
+        <v>-0.003796040468502592</v>
       </c>
       <c r="D46">
-        <v>0.01151053255934376</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01484005684944052</v>
+      </c>
+      <c r="E46">
+        <v>-0.03373333313264553</v>
+      </c>
+      <c r="F46">
+        <v>-0.0311955667414582</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05401318336646766</v>
+        <v>0.05328923595733027</v>
       </c>
       <c r="C47">
-        <v>-0.006846538998058909</v>
+        <v>-0.00540864782811412</v>
       </c>
       <c r="D47">
-        <v>0.008368007127476523</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0125986133055436</v>
+      </c>
+      <c r="E47">
+        <v>-0.02355204475999296</v>
+      </c>
+      <c r="F47">
+        <v>-0.04706163120684645</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04858728068862543</v>
+        <v>0.05162347341528919</v>
       </c>
       <c r="C48">
-        <v>-0.005995223413943512</v>
+        <v>-0.003098392900360571</v>
       </c>
       <c r="D48">
-        <v>0.04994886557626056</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05340559272420713</v>
+      </c>
+      <c r="E48">
+        <v>0.001022680356762533</v>
+      </c>
+      <c r="F48">
+        <v>0.01000085678199728</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1978047679806826</v>
+        <v>0.1995267684087794</v>
       </c>
       <c r="C49">
-        <v>-0.0272602282892646</v>
+        <v>-0.02408939389527424</v>
       </c>
       <c r="D49">
-        <v>-0.008663901911284397</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.002755933284716902</v>
+      </c>
+      <c r="E49">
+        <v>-0.02276297432921267</v>
+      </c>
+      <c r="F49">
+        <v>0.06911176862674201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04928629130364489</v>
+        <v>0.05191508972922298</v>
       </c>
       <c r="C50">
-        <v>-0.01421343064026628</v>
+        <v>-0.01267393702639055</v>
       </c>
       <c r="D50">
-        <v>0.0243304331527863</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02655574510848286</v>
+      </c>
+      <c r="E50">
+        <v>-0.03110267051080802</v>
+      </c>
+      <c r="F50">
+        <v>0.005052468283268745</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1524869425830105</v>
+        <v>0.1458463337360177</v>
       </c>
       <c r="C52">
-        <v>-0.02375193355331173</v>
+        <v>-0.02076739934325825</v>
       </c>
       <c r="D52">
-        <v>0.04207238457719076</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.044423946322438</v>
+      </c>
+      <c r="E52">
+        <v>-0.03135176720962612</v>
+      </c>
+      <c r="F52">
+        <v>0.04394802412113904</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1749136401761488</v>
+        <v>0.1679608365845897</v>
       </c>
       <c r="C53">
-        <v>-0.02624486184982202</v>
+        <v>-0.02470730797750209</v>
       </c>
       <c r="D53">
-        <v>0.00572900620367814</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.008389068785805661</v>
+      </c>
+      <c r="E53">
+        <v>-0.03987761062706711</v>
+      </c>
+      <c r="F53">
+        <v>0.09631771705230549</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01395459803695016</v>
+        <v>0.01732308927509189</v>
       </c>
       <c r="C54">
-        <v>-0.0116385968049468</v>
+        <v>-0.01083205283308958</v>
       </c>
       <c r="D54">
-        <v>0.03032267540646432</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02913358407367768</v>
+      </c>
+      <c r="E54">
+        <v>-0.0200285545583478</v>
+      </c>
+      <c r="F54">
+        <v>-0.01009420025818108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1190076097942811</v>
+        <v>0.1165302891620333</v>
       </c>
       <c r="C55">
-        <v>-0.02270855014347585</v>
+        <v>-0.02146834845483178</v>
       </c>
       <c r="D55">
-        <v>0.004790159320195689</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01197237486891341</v>
+      </c>
+      <c r="E55">
+        <v>-0.03871631444003475</v>
+      </c>
+      <c r="F55">
+        <v>0.03465621867765094</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.180659543151727</v>
+        <v>0.1748581907740237</v>
       </c>
       <c r="C56">
-        <v>-0.02427892979477406</v>
+        <v>-0.02303516600127982</v>
       </c>
       <c r="D56">
-        <v>-0.004780266716109556</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0002525892786121804</v>
+      </c>
+      <c r="E56">
+        <v>-0.04027733947433138</v>
+      </c>
+      <c r="F56">
+        <v>0.05526849442839711</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04551221274859762</v>
+        <v>0.044300528889713</v>
       </c>
       <c r="C58">
-        <v>-0.004769356440497856</v>
+        <v>2.794226974611829e-05</v>
       </c>
       <c r="D58">
-        <v>0.06723869361363376</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07762850681087581</v>
+      </c>
+      <c r="E58">
+        <v>-0.03625593786240276</v>
+      </c>
+      <c r="F58">
+        <v>-0.05235088319537259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1650812890347126</v>
+        <v>0.1712862864866748</v>
       </c>
       <c r="C59">
-        <v>-0.02271151873604206</v>
+        <v>-0.02819325151123366</v>
       </c>
       <c r="D59">
-        <v>-0.2191837828276983</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2150023360204713</v>
+      </c>
+      <c r="E59">
+        <v>0.05359570995769465</v>
+      </c>
+      <c r="F59">
+        <v>-0.06466474820393348</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.234093778486521</v>
+        <v>0.2268971358234976</v>
       </c>
       <c r="C60">
-        <v>-0.00801005831334335</v>
+        <v>-0.003546473350361293</v>
       </c>
       <c r="D60">
-        <v>0.03849589503428542</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03854274102312489</v>
+      </c>
+      <c r="E60">
+        <v>0.007233765253084437</v>
+      </c>
+      <c r="F60">
+        <v>0.02967131651627423</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.07695137821463155</v>
+        <v>0.07221908665415028</v>
       </c>
       <c r="C61">
-        <v>-0.0168926357434806</v>
+        <v>-0.01110045249624365</v>
       </c>
       <c r="D61">
-        <v>0.1134802482278785</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1182825669140877</v>
+      </c>
+      <c r="E61">
+        <v>-0.04598895132322903</v>
+      </c>
+      <c r="F61">
+        <v>-0.01386617272458523</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1725608230414598</v>
+        <v>0.1681353445055767</v>
       </c>
       <c r="C62">
-        <v>-0.02766798664500742</v>
+        <v>-0.0254393321763446</v>
       </c>
       <c r="D62">
-        <v>0.002715898728038878</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.009900241879598681</v>
+      </c>
+      <c r="E62">
+        <v>-0.04219168758122828</v>
+      </c>
+      <c r="F62">
+        <v>0.03818321652236298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.0426318863771398</v>
+        <v>0.0468840939223766</v>
       </c>
       <c r="C63">
-        <v>-0.006131491841901175</v>
+        <v>-0.00310468066430823</v>
       </c>
       <c r="D63">
-        <v>0.05460909893638033</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06409125142742748</v>
+      </c>
+      <c r="E63">
+        <v>-0.02623295387076275</v>
+      </c>
+      <c r="F63">
+        <v>-0.01238433053163018</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.11394378325571</v>
+        <v>0.1115162258919972</v>
       </c>
       <c r="C64">
-        <v>-0.01906778153834073</v>
+        <v>-0.01515896696551272</v>
       </c>
       <c r="D64">
-        <v>0.03753680486324421</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04419865508983183</v>
+      </c>
+      <c r="E64">
+        <v>-0.03144997340822263</v>
+      </c>
+      <c r="F64">
+        <v>0.0191511753341252</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1478378524918662</v>
+        <v>0.1551146505638073</v>
       </c>
       <c r="C65">
-        <v>-0.04029533549085697</v>
+        <v>-0.03948905309692599</v>
       </c>
       <c r="D65">
-        <v>-0.04928512633047089</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.03955158809941116</v>
+      </c>
+      <c r="E65">
+        <v>-0.01024419543107983</v>
+      </c>
+      <c r="F65">
+        <v>0.06131403779438793</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1283713879235751</v>
+        <v>0.1160801760892022</v>
       </c>
       <c r="C66">
-        <v>-0.02219644894054101</v>
+        <v>-0.01492741311761209</v>
       </c>
       <c r="D66">
-        <v>0.1370782469645693</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1430154073821746</v>
+      </c>
+      <c r="E66">
+        <v>-0.07351425275560858</v>
+      </c>
+      <c r="F66">
+        <v>-0.003258071160659165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06339816589534041</v>
+        <v>0.05596167290347084</v>
       </c>
       <c r="C67">
-        <v>-0.007454316688130168</v>
+        <v>-0.00470222529635117</v>
       </c>
       <c r="D67">
-        <v>0.05427931937189209</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0585280771143858</v>
+      </c>
+      <c r="E67">
+        <v>-0.02428465232937261</v>
+      </c>
+      <c r="F67">
+        <v>-0.07378267859901098</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.113526355842958</v>
+        <v>0.1216890959271214</v>
       </c>
       <c r="C68">
-        <v>-0.03055024707961831</v>
+        <v>-0.03816808753946076</v>
       </c>
       <c r="D68">
-        <v>-0.2616099123877733</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2575713397780209</v>
+      </c>
+      <c r="E68">
+        <v>0.08525612372986761</v>
+      </c>
+      <c r="F68">
+        <v>0.01514660098873872</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04000360565879658</v>
+        <v>0.03938147693745955</v>
       </c>
       <c r="C69">
-        <v>-0.00331995447637552</v>
+        <v>-0.002169188672579761</v>
       </c>
       <c r="D69">
-        <v>0.01071243910784398</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01139909707731881</v>
+      </c>
+      <c r="E69">
+        <v>-0.02979284939161264</v>
+      </c>
+      <c r="F69">
+        <v>-0.0174195383992056</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06960807323236431</v>
+        <v>0.06967907427390486</v>
       </c>
       <c r="C70">
-        <v>0.02263904442601394</v>
+        <v>0.02507388353786588</v>
       </c>
       <c r="D70">
-        <v>0.02782851274784118</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.03153160174035815</v>
+      </c>
+      <c r="E70">
+        <v>0.03953625207322701</v>
+      </c>
+      <c r="F70">
+        <v>-0.3187258636378671</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1324836137567037</v>
+        <v>0.1420963045275699</v>
       </c>
       <c r="C71">
-        <v>-0.03572941250312804</v>
+        <v>-0.04331890627177372</v>
       </c>
       <c r="D71">
-        <v>-0.276263993617049</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2670446494317767</v>
+      </c>
+      <c r="E71">
+        <v>0.09586617211095499</v>
+      </c>
+      <c r="F71">
+        <v>0.02060285130461485</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1388294642592031</v>
+        <v>0.1445033788869141</v>
       </c>
       <c r="C72">
-        <v>-0.03195063535828803</v>
+        <v>-0.0313945341287669</v>
       </c>
       <c r="D72">
-        <v>0.001736894494285972</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0002451223114957357</v>
+      </c>
+      <c r="E72">
+        <v>-0.04291333664980372</v>
+      </c>
+      <c r="F72">
+        <v>0.03551631486801106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2000340276470007</v>
+        <v>0.2031416666574464</v>
       </c>
       <c r="C73">
-        <v>-0.02146424890065893</v>
+        <v>-0.01706049097230943</v>
       </c>
       <c r="D73">
-        <v>0.01090607133707859</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01783043348618764</v>
+      </c>
+      <c r="E73">
+        <v>-0.06672800996901686</v>
+      </c>
+      <c r="F73">
+        <v>0.037387151713954</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08792823771571637</v>
+        <v>0.08845730737387525</v>
       </c>
       <c r="C74">
-        <v>-0.0155133249386834</v>
+        <v>-0.01423785091935028</v>
       </c>
       <c r="D74">
-        <v>0.01274381328248866</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01711222069185318</v>
+      </c>
+      <c r="E74">
+        <v>-0.05011916899040924</v>
+      </c>
+      <c r="F74">
+        <v>0.05201020907880131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1315352639024053</v>
+        <v>0.123871671923952</v>
       </c>
       <c r="C75">
-        <v>-0.03421903635448659</v>
+        <v>-0.0314734160284353</v>
       </c>
       <c r="D75">
-        <v>0.02562614703053304</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03196204470654015</v>
+      </c>
+      <c r="E75">
+        <v>-0.06176355900560852</v>
+      </c>
+      <c r="F75">
+        <v>0.01921710670795082</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08074214455601907</v>
+        <v>0.09242880946732684</v>
       </c>
       <c r="C77">
-        <v>-0.01551114365351602</v>
+        <v>-0.01024311461731933</v>
       </c>
       <c r="D77">
-        <v>0.1169347344970809</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.120517071377226</v>
+      </c>
+      <c r="E77">
+        <v>-0.04863137852263118</v>
+      </c>
+      <c r="F77">
+        <v>0.03761563958530006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1011593022794488</v>
+        <v>0.1013460571417559</v>
       </c>
       <c r="C78">
-        <v>-0.04654950657613501</v>
+        <v>-0.04187389571312898</v>
       </c>
       <c r="D78">
-        <v>0.110872273461846</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1100811821058157</v>
+      </c>
+      <c r="E78">
+        <v>-0.07838180540621843</v>
+      </c>
+      <c r="F78">
+        <v>0.03978375513755136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1693189921475595</v>
+        <v>0.164583472875291</v>
       </c>
       <c r="C79">
-        <v>-0.03101662010844023</v>
+        <v>-0.02857924119348556</v>
       </c>
       <c r="D79">
-        <v>0.01128689373639317</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01795239464585996</v>
+      </c>
+      <c r="E79">
+        <v>-0.04987486223211673</v>
+      </c>
+      <c r="F79">
+        <v>0.01549336491878901</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08024339800945476</v>
+        <v>0.07894285581026975</v>
       </c>
       <c r="C80">
-        <v>-0.003967735943390937</v>
+        <v>-0.001021133006379324</v>
       </c>
       <c r="D80">
-        <v>0.05081261538785444</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05103430428451744</v>
+      </c>
+      <c r="E80">
+        <v>-0.03665302648121945</v>
+      </c>
+      <c r="F80">
+        <v>-0.06075576722481231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1180952302369696</v>
+        <v>0.1127060026910378</v>
       </c>
       <c r="C81">
-        <v>-0.03571495900674392</v>
+        <v>-0.03430015689720185</v>
       </c>
       <c r="D81">
-        <v>0.006623567456891288</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01239522600259101</v>
+      </c>
+      <c r="E81">
+        <v>-0.0560098980641952</v>
+      </c>
+      <c r="F81">
+        <v>0.01050733845765483</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1641877878797689</v>
+        <v>0.1624269500627424</v>
       </c>
       <c r="C82">
-        <v>-0.03042846183032678</v>
+        <v>-0.02955861276660568</v>
       </c>
       <c r="D82">
-        <v>0.00731301729214938</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.005302211748108632</v>
+      </c>
+      <c r="E82">
+        <v>-0.03865242395876037</v>
+      </c>
+      <c r="F82">
+        <v>0.09907912667185582</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05796831400734721</v>
+        <v>0.05299958206095667</v>
       </c>
       <c r="C83">
-        <v>-0.005850976314454115</v>
+        <v>-0.003596469252711253</v>
       </c>
       <c r="D83">
-        <v>0.03825379002483514</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03978054851771201</v>
+      </c>
+      <c r="E83">
+        <v>0.008696609740452704</v>
+      </c>
+      <c r="F83">
+        <v>-0.03632509802612339</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05926411710071666</v>
+        <v>0.05502886445175463</v>
       </c>
       <c r="C84">
-        <v>-0.01429535401018545</v>
+        <v>-0.01115145072668597</v>
       </c>
       <c r="D84">
-        <v>0.07718590754734088</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07809720704048141</v>
+      </c>
+      <c r="E84">
+        <v>-0.01655512463825168</v>
+      </c>
+      <c r="F84">
+        <v>0.006029182881453895</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1396707092916312</v>
+        <v>0.1345144818840649</v>
       </c>
       <c r="C85">
-        <v>-0.03392626352657273</v>
+        <v>-0.03230953592825078</v>
       </c>
       <c r="D85">
-        <v>0.008058797631831595</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01170828980955395</v>
+      </c>
+      <c r="E85">
+        <v>-0.04654259375120563</v>
+      </c>
+      <c r="F85">
+        <v>0.05937099852168251</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.0819558990520439</v>
+        <v>0.07818420687728445</v>
       </c>
       <c r="C86">
-        <v>0.005860140856311917</v>
+        <v>0.008878632049714577</v>
       </c>
       <c r="D86">
-        <v>0.01834214366672142</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04673441861778614</v>
+      </c>
+      <c r="E86">
+        <v>-0.09098577843717146</v>
+      </c>
+      <c r="F86">
+        <v>-0.8328448396098299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09484073883510771</v>
+        <v>0.09157115618929973</v>
       </c>
       <c r="C87">
-        <v>-0.03029440102393371</v>
+        <v>-0.02199456421846028</v>
       </c>
       <c r="D87">
-        <v>0.07423154731900389</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09140741386785541</v>
+      </c>
+      <c r="E87">
+        <v>0.05842628054664268</v>
+      </c>
+      <c r="F87">
+        <v>0.06706014932208906</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06273784067911807</v>
+        <v>0.06143966242293285</v>
       </c>
       <c r="C88">
-        <v>-0.007003358074778357</v>
+        <v>-0.003883262457099973</v>
       </c>
       <c r="D88">
-        <v>0.05144240740107049</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0517117354914702</v>
+      </c>
+      <c r="E88">
+        <v>-0.03063086473722134</v>
+      </c>
+      <c r="F88">
+        <v>0.003325430451490091</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1238562172466758</v>
+        <v>0.1310855542695321</v>
       </c>
       <c r="C89">
-        <v>-0.01123543518666252</v>
+        <v>-0.01831807602548902</v>
       </c>
       <c r="D89">
-        <v>-0.2374870244304436</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2397248736117008</v>
+      </c>
+      <c r="E89">
+        <v>0.0875977935560233</v>
+      </c>
+      <c r="F89">
+        <v>0.00647714266823188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1435076508059277</v>
+        <v>0.1570436236563282</v>
       </c>
       <c r="C90">
-        <v>-0.0318548027583415</v>
+        <v>-0.04021141265040506</v>
       </c>
       <c r="D90">
-        <v>-0.2624018619608064</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2648733121463799</v>
+      </c>
+      <c r="E90">
+        <v>0.1162753238816651</v>
+      </c>
+      <c r="F90">
+        <v>0.006769250569991884</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1246791890953407</v>
+        <v>0.1212823059882749</v>
       </c>
       <c r="C91">
-        <v>-0.0249233373044759</v>
+        <v>-0.02404578777198586</v>
       </c>
       <c r="D91">
-        <v>-0.01810841823095945</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01351877021491737</v>
+      </c>
+      <c r="E91">
+        <v>-0.05758384856696649</v>
+      </c>
+      <c r="F91">
+        <v>-0.01346039341540692</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1440206688534016</v>
+        <v>0.1500959565925205</v>
       </c>
       <c r="C92">
-        <v>-0.0227475815222745</v>
+        <v>-0.03108711957995172</v>
       </c>
       <c r="D92">
-        <v>-0.2896421728688995</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.289797536775794</v>
+      </c>
+      <c r="E92">
+        <v>0.1053938716368633</v>
+      </c>
+      <c r="F92">
+        <v>-0.01124871210987299</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1486990841774814</v>
+        <v>0.1597575309960996</v>
       </c>
       <c r="C93">
-        <v>-0.02847194931917498</v>
+        <v>-0.03533079105571756</v>
       </c>
       <c r="D93">
-        <v>-0.2596995927637327</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.258189376275365</v>
+      </c>
+      <c r="E93">
+        <v>0.07116049415984479</v>
+      </c>
+      <c r="F93">
+        <v>0.01216880119022934</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1313050333088895</v>
+        <v>0.1236840514994357</v>
       </c>
       <c r="C94">
-        <v>-0.03053870274958658</v>
+        <v>-0.02712179763140507</v>
       </c>
       <c r="D94">
-        <v>0.04105869749514508</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04522965800702769</v>
+      </c>
+      <c r="E94">
+        <v>-0.06383968044161195</v>
+      </c>
+      <c r="F94">
+        <v>0.02304062390037789</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1269207504598152</v>
+        <v>0.1292273617749865</v>
       </c>
       <c r="C95">
-        <v>-0.0126180355353089</v>
+        <v>-0.007090275437523792</v>
       </c>
       <c r="D95">
-        <v>0.08905384216800455</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1001739615142034</v>
+      </c>
+      <c r="E95">
+        <v>-0.06371944106809772</v>
+      </c>
+      <c r="F95">
+        <v>-0.03329384848131563</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1501379673937592</v>
+        <v>0.1377592188404296</v>
       </c>
       <c r="C96">
-        <v>0.982840452929759</v>
+        <v>0.9834845922668034</v>
       </c>
       <c r="D96">
-        <v>-0.02589113046373637</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05530416282659233</v>
+      </c>
+      <c r="E96">
+        <v>-0.05366185384346478</v>
+      </c>
+      <c r="F96">
+        <v>0.0429160880639468</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1892558983502891</v>
+        <v>0.1927808862833505</v>
       </c>
       <c r="C97">
-        <v>-0.001181855635382652</v>
+        <v>0.0001808459706892178</v>
       </c>
       <c r="D97">
-        <v>-0.02336235104413942</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.026846305320973</v>
+      </c>
+      <c r="E97">
+        <v>-0.01986364330543394</v>
+      </c>
+      <c r="F97">
+        <v>-0.1817166836426378</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1953671490451717</v>
+        <v>0.2014332107319019</v>
       </c>
       <c r="C98">
-        <v>-0.01552670883722489</v>
+        <v>-0.01086969479116247</v>
       </c>
       <c r="D98">
-        <v>0.00664373397831818</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.009639198647134507</v>
+      </c>
+      <c r="E98">
+        <v>0.08839379146220655</v>
+      </c>
+      <c r="F98">
+        <v>-0.06907246621657602</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05741923319883201</v>
+        <v>0.05695997056957244</v>
       </c>
       <c r="C99">
-        <v>0.0006061488561599927</v>
+        <v>0.002751629462531961</v>
       </c>
       <c r="D99">
-        <v>0.03794475256582795</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04317256952514116</v>
+      </c>
+      <c r="E99">
+        <v>-0.02680869293983674</v>
+      </c>
+      <c r="F99">
+        <v>-0.01426924349254955</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1476246157129878</v>
+        <v>0.133927633536122</v>
       </c>
       <c r="C100">
-        <v>0.03460757505336533</v>
+        <v>0.04716263989042273</v>
       </c>
       <c r="D100">
-        <v>0.3982715737803233</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3617449026811475</v>
+      </c>
+      <c r="E100">
+        <v>0.8933030892490711</v>
+      </c>
+      <c r="F100">
+        <v>-0.02107880136382227</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02514527609557596</v>
+        <v>0.02764440822658876</v>
       </c>
       <c r="C101">
-        <v>-0.009757565411371637</v>
+        <v>-0.009045083321968682</v>
       </c>
       <c r="D101">
-        <v>0.03045566423112506</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03045078259123227</v>
+      </c>
+      <c r="E101">
+        <v>-0.01612439178371627</v>
+      </c>
+      <c r="F101">
+        <v>-0.02953579131914751</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
